--- a/data/134/DEUSTATIS/National accounts - Employment years.xlsx
+++ b/data/134/DEUSTATIS/National accounts - Employment years.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="68">
   <si>
     <t>National accounts - Employment, wages and salaries,
 hours worked: Germany, years, industries</t>
@@ -195,6 +195,9 @@
     <t>2020</t>
   </si>
   <si>
+    <t>2021</t>
+  </si>
+  <si>
     <t>______________</t>
   </si>
   <si>
@@ -213,7 +216,7 @@
     <t>Agency, Nürnberg.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 09:34:49</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-03-31 / 11:34:50</t>
   </si>
 </sst>
 </file>
@@ -11887,39 +11890,396 @@
         <v>1284.4</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" t="s" s="13">
+    <row r="276" ht="33.75" customHeight="true">
+      <c r="A276" t="s" s="16">
         <v>60</v>
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="s" s="13">
+      <c r="A277" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="B277" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="C277" t="n" s="12">
+        <v>8.396</v>
+      </c>
+      <c r="D277" t="n" s="12">
+        <v>468.194</v>
+      </c>
+      <c r="E277" t="n" s="12">
+        <v>427.97</v>
+      </c>
+      <c r="F277" t="n" s="12">
+        <v>96.986</v>
+      </c>
+      <c r="G277" t="n" s="12">
+        <v>321.072</v>
+      </c>
+      <c r="H277" t="n" s="12">
+        <v>103.033</v>
+      </c>
+      <c r="I277" t="n" s="12">
+        <v>74.853</v>
+      </c>
+      <c r="J277" t="n" s="12">
+        <v>18.026</v>
+      </c>
+      <c r="K277" t="n" s="12">
+        <v>236.945</v>
+      </c>
+      <c r="L277" t="n" s="12">
+        <v>517.52</v>
+      </c>
+      <c r="M277" t="n" s="12">
+        <v>71.88</v>
+      </c>
+      <c r="N277" t="n" s="12">
+        <v>1916.905</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s" s="11">
+        <v>21</v>
+      </c>
+      <c r="B278" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="C278" t="n" s="12">
+        <v>7.026</v>
+      </c>
+      <c r="D278" t="n" s="12">
+        <v>383.521</v>
+      </c>
+      <c r="E278" t="n" s="12">
+        <v>351.491</v>
+      </c>
+      <c r="F278" t="n" s="12">
+        <v>81.4</v>
+      </c>
+      <c r="G278" t="n" s="12">
+        <v>268.1</v>
+      </c>
+      <c r="H278" t="n" s="12">
+        <v>86.058</v>
+      </c>
+      <c r="I278" t="n" s="12">
+        <v>60.168</v>
+      </c>
+      <c r="J278" t="n" s="12">
+        <v>14.767</v>
+      </c>
+      <c r="K278" t="n" s="12">
+        <v>197.355</v>
+      </c>
+      <c r="L278" t="n" s="12">
+        <v>410.08</v>
+      </c>
+      <c r="M278" t="n" s="12">
+        <v>59.055</v>
+      </c>
+      <c r="N278" t="n" s="12">
+        <v>1567.53</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s" s="11">
+        <v>22</v>
+      </c>
+      <c r="B279" t="s" s="15">
+        <v>23</v>
+      </c>
+      <c r="C279" t="n" s="12">
+        <v>562.0</v>
+      </c>
+      <c r="D279" t="n" s="12">
+        <v>8080.0</v>
+      </c>
+      <c r="E279" t="n" s="12">
+        <v>7471.0</v>
+      </c>
+      <c r="F279" t="n" s="12">
+        <v>2607.0</v>
+      </c>
+      <c r="G279" t="n" s="12">
+        <v>9875.0</v>
+      </c>
+      <c r="H279" t="n" s="12">
+        <v>1430.0</v>
+      </c>
+      <c r="I279" t="n" s="12">
+        <v>1080.0</v>
+      </c>
+      <c r="J279" t="n" s="12">
+        <v>478.0</v>
+      </c>
+      <c r="K279" t="n" s="12">
+        <v>6128.0</v>
+      </c>
+      <c r="L279" t="n" s="12">
+        <v>11717.0</v>
+      </c>
+      <c r="M279" t="n" s="12">
+        <v>2963.0</v>
+      </c>
+      <c r="N279" t="n" s="12">
+        <v>44920.0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s" s="11">
+        <v>24</v>
+      </c>
+      <c r="B280" t="s" s="15">
+        <v>23</v>
+      </c>
+      <c r="C280" t="n" s="12">
+        <v>357.0</v>
+      </c>
+      <c r="D280" t="n" s="12">
+        <v>7852.0</v>
+      </c>
+      <c r="E280" t="n" s="12">
+        <v>7254.0</v>
+      </c>
+      <c r="F280" t="n" s="12">
+        <v>2161.0</v>
+      </c>
+      <c r="G280" t="n" s="12">
+        <v>9088.0</v>
+      </c>
+      <c r="H280" t="n" s="12">
+        <v>1306.0</v>
+      </c>
+      <c r="I280" t="n" s="12">
+        <v>958.0</v>
+      </c>
+      <c r="J280" t="n" s="12">
+        <v>432.0</v>
+      </c>
+      <c r="K280" t="n" s="12">
+        <v>5272.0</v>
+      </c>
+      <c r="L280" t="n" s="12">
+        <v>11041.0</v>
+      </c>
+      <c r="M280" t="n" s="12">
+        <v>2524.0</v>
+      </c>
+      <c r="N280" t="n" s="12">
+        <v>40991.0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s" s="11">
+        <v>25</v>
+      </c>
+      <c r="B281" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="C281" t="n" s="12">
+        <v>936.0</v>
+      </c>
+      <c r="D281" t="n" s="12">
+        <v>11625.0</v>
+      </c>
+      <c r="E281" t="n" s="12">
+        <v>10694.0</v>
+      </c>
+      <c r="F281" t="n" s="12">
+        <v>4067.0</v>
+      </c>
+      <c r="G281" t="n" s="12">
+        <v>12709.0</v>
+      </c>
+      <c r="H281" t="n" s="12">
+        <v>2156.0</v>
+      </c>
+      <c r="I281" t="n" s="12">
+        <v>1582.0</v>
+      </c>
+      <c r="J281" t="n" s="12">
+        <v>583.0</v>
+      </c>
+      <c r="K281" t="n" s="12">
+        <v>8168.0</v>
+      </c>
+      <c r="L281" t="n" s="12">
+        <v>15666.0</v>
+      </c>
+      <c r="M281" t="n" s="12">
+        <v>3121.0</v>
+      </c>
+      <c r="N281" t="n" s="12">
+        <v>60611.0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s" s="11">
+        <v>27</v>
+      </c>
+      <c r="B282" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="C282" t="n" s="12">
+        <v>476.0</v>
+      </c>
+      <c r="D282" t="n" s="12">
+        <v>11170.0</v>
+      </c>
+      <c r="E282" t="n" s="12">
+        <v>10262.0</v>
+      </c>
+      <c r="F282" t="n" s="12">
+        <v>3172.0</v>
+      </c>
+      <c r="G282" t="n" s="12">
+        <v>11174.0</v>
+      </c>
+      <c r="H282" t="n" s="12">
+        <v>1928.0</v>
+      </c>
+      <c r="I282" t="n" s="12">
+        <v>1347.0</v>
+      </c>
+      <c r="J282" t="n" s="12">
+        <v>509.0</v>
+      </c>
+      <c r="K282" t="n" s="12">
+        <v>6650.0</v>
+      </c>
+      <c r="L282" t="n" s="12">
+        <v>14640.0</v>
+      </c>
+      <c r="M282" t="n" s="12">
+        <v>2449.0</v>
+      </c>
+      <c r="N282" t="n" s="12">
+        <v>53516.0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="B283" t="s" s="15">
+        <v>29</v>
+      </c>
+      <c r="C283" t="n" s="12">
+        <v>1664.9</v>
+      </c>
+      <c r="D283" t="n" s="12">
+        <v>1438.7</v>
+      </c>
+      <c r="E283" t="n" s="12">
+        <v>1431.4</v>
+      </c>
+      <c r="F283" t="n" s="12">
+        <v>1559.9</v>
+      </c>
+      <c r="G283" t="n" s="12">
+        <v>1287.0</v>
+      </c>
+      <c r="H283" t="n" s="12">
+        <v>1507.4</v>
+      </c>
+      <c r="I283" t="n" s="12">
+        <v>1464.8</v>
+      </c>
+      <c r="J283" t="n" s="12">
+        <v>1220.3</v>
+      </c>
+      <c r="K283" t="n" s="12">
+        <v>1332.8</v>
+      </c>
+      <c r="L283" t="n" s="12">
+        <v>1337.0</v>
+      </c>
+      <c r="M283" t="n" s="12">
+        <v>1053.5</v>
+      </c>
+      <c r="N283" t="n" s="12">
+        <v>1349.3</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s" s="11">
+        <v>30</v>
+      </c>
+      <c r="B284" t="s" s="15">
+        <v>29</v>
+      </c>
+      <c r="C284" t="n" s="12">
+        <v>1333.0</v>
+      </c>
+      <c r="D284" t="n" s="12">
+        <v>1422.6</v>
+      </c>
+      <c r="E284" t="n" s="12">
+        <v>1414.7</v>
+      </c>
+      <c r="F284" t="n" s="12">
+        <v>1467.9</v>
+      </c>
+      <c r="G284" t="n" s="12">
+        <v>1229.5</v>
+      </c>
+      <c r="H284" t="n" s="12">
+        <v>1476.5</v>
+      </c>
+      <c r="I284" t="n" s="12">
+        <v>1406.3</v>
+      </c>
+      <c r="J284" t="n" s="12">
+        <v>1178.3</v>
+      </c>
+      <c r="K284" t="n" s="12">
+        <v>1261.5</v>
+      </c>
+      <c r="L284" t="n" s="12">
+        <v>1326.0</v>
+      </c>
+      <c r="M284" t="n" s="12">
+        <v>970.4</v>
+      </c>
+      <c r="N284" t="n" s="12">
+        <v>1305.6</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s" s="13">
         <v>61</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" t="s" s="13">
+    <row r="286">
+      <c r="A286" t="s" s="13">
         <v>62</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" t="s" s="13">
+    <row r="287">
+      <c r="A287" t="s" s="13">
         <v>63</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" t="s" s="13">
+    <row r="289">
+      <c r="A289" t="s" s="13">
         <v>64</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" t="s" s="13">
+    <row r="290">
+      <c r="A290" t="s" s="13">
         <v>65</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" t="s" s="14">
+    <row r="291">
+      <c r="A291" t="s" s="13">
         <v>66</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s" s="14">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -11959,11 +12319,12 @@
     <mergeCell ref="A249:N249"/>
     <mergeCell ref="A258:N258"/>
     <mergeCell ref="A267:N267"/>
+    <mergeCell ref="A276:N276"/>
     <mergeCell ref="A1:N1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.12.21 / 09:34:55&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 31.03.22 / 11:34:55&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>